--- a/Pricing.xlsx
+++ b/Pricing.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
